--- a/Assignment1 EnforcementLookup/Enforcement Lookup.xlsx
+++ b/Assignment1 EnforcementLookup/Enforcement Lookup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdoadmin\Desktop\AIS_RPA_ReferenceSolutions\Assignment1 EnforcementLookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\Desktop\AIS_RPA_ReferenceSolutions\Assignment1 EnforcementLookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0EF8D0-50B7-4B57-B4B7-8B9A390E0190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B505C-9ED8-4E49-AC3F-EBA865837BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4212" windowWidth="21600" windowHeight="11388" xr2:uid="{166FA370-149C-4B54-B09B-C0F9189DF61F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>黑松股份有限公司</t>
   </si>
@@ -58,14 +58,6 @@
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -604,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -618,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
